--- a/urls.xlsx
+++ b/urls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="123">
   <si>
     <t xml:space="preserve">URLs</t>
   </si>
@@ -504,13 +504,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:B159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A102" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D131" activeCellId="0" sqref="D131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="87.3"/>
   </cols>
@@ -728,481 +728,803 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>122</v>
       </c>
-    </row>
+      <c r="B122" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
